--- a/Submit/Team_10_Week_10_181114_The_Veil/Feedback/Game Feedback.xlsx
+++ b/Submit/Team_10_Week_10_181114_The_Veil/Feedback/Game Feedback.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>No.</t>
   </si>
@@ -207,6 +207,33 @@
   <si>
     <t>old version
 the veil</t>
+  </si>
+  <si>
+    <t>Can complete the game with a "triple jump" before playing the game (resize/rescale?) Martin + Team</t>
+  </si>
+  <si>
+    <t>Player needs more hand-holding than currently present, unaware of goal from beginning of game, and did not complete (Martin)</t>
+  </si>
+  <si>
+    <t>"Tutorial" text box is infuriating, almost unpassable at first (Martin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs better signposting, and interactions between platforms button was wrongly noted (E instead of F) (Martin) </t>
+  </si>
+  <si>
+    <t>Artwork is good and fits theme game's theme, though looking forward to new iterations and developments (Martin)</t>
+  </si>
+  <si>
+    <t>Music (across all three themes) is great. (Martin)</t>
+  </si>
+  <si>
+    <t>Jumping can be a bit distracting "jarring," so I need to find a way of making it less tiresome, maybe lower volume and add slight randomisation to pitch to start off with? (Martin)</t>
+  </si>
+  <si>
+    <t>Audio issues, cutting out intermittingly (I think this could be to do with transitions between certain combinations of the planes and I can fix this with a bit of Wwise troubleshooting) (Martin)</t>
+  </si>
+  <si>
+    <t>Loves the backstory, but feels it could be explored more in-game (Martin)</t>
   </si>
   <si>
     <t>Because the camera following the character everytime, when the player keep jumping, the camera will keep shaking, it makes player feel uncomfortable.</t>
@@ -755,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,10 +1449,10 @@
         <v>61</v>
       </c>
       <c r="C51" s="6">
-        <v>43418</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -1433,6 +1460,78 @@
         <v>62</v>
       </c>
       <c r="C52" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="6">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="6">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="6">
         <v>43418</v>
       </c>
     </row>

--- a/Submit/Team_10_Week_10_181114_The_Veil/Feedback/Game Feedback.xlsx
+++ b/Submit/Team_10_Week_10_181114_The_Veil/Feedback/Game Feedback.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>No.</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Game title and menu looks too ugly.</t>
+  </si>
+  <si>
+    <t>Found jumping over the platform bridge at the end difficult. Liked the art but found some of the character movement too fast. Wasn't sold on the dialogue, and had issue with the double jump movement. Overall, liked the concept of the game (Nathan)</t>
   </si>
 </sst>
 </file>
@@ -782,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,6 +1536,14 @@
       </c>
       <c r="C61" s="6">
         <v>43418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="6">
+        <v>43420</v>
       </c>
     </row>
   </sheetData>
